--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11691" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12883" uniqueCount="1423">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:40:12+00:00</t>
+    <t>2023-02-20T01:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3504,6 +3504,374 @@
   </si>
   <si>
     <t>Task outputs can take any form.</t>
+  </si>
+  <si>
+    <t>open-elispractitioner</t>
+  </si>
+  <si>
+    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elispractitioner</t>
+  </si>
+  <si>
+    <t>OpenELISPractitioner</t>
+  </si>
+  <si>
+    <t>OpenELIS Practitioner</t>
+  </si>
+  <si>
+    <t>A Practitioner Resource used for FHIR Exchange</t>
+  </si>
+  <si>
+    <t>Practitioner</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Practitioner</t>
+  </si>
+  <si>
+    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
+  </si>
+  <si>
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>Practitioner.id</t>
+  </si>
+  <si>
+    <t>Practitioner.meta</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
+    <t>Practitioner.language</t>
+  </si>
+  <si>
+    <t>Practitioner.text</t>
+  </si>
+  <si>
+    <t>Practitioner.contained</t>
+  </si>
+  <si>
+    <t>Practitioner.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for the person as this agent</t>
+  </si>
+  <si>
+    <t>An identifier that applies to this person in this role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>Practitioner.active</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use.</t>
+  </si>
+  <si>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>Practitioner.name</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner.</t>
+  </si>
+  <si>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
+  </si>
+  <si>
+    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
+  </si>
+  <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
+    <t>Practitioner.address</t>
+  </si>
+  <si>
+    <t>Address(es) of the practitioner that are not role specific (typically home address)</t>
+  </si>
+  <si>
+    <t>Address(es) of the practitioner that are not role specific (typically home address). +Work addresses are not typically entered in this property as they are usually role dependent.</t>
+  </si>
+  <si>
+    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
+  </si>
+  <si>
+    <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
+  </si>
+  <si>
+    <t>Practitioner.gender</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Practitioner.birthDate</t>
+  </si>
+  <si>
+    <t>The date  on which the practitioner was born</t>
+  </si>
+  <si>
+    <t>The date of birth for the practitioner.</t>
+  </si>
+  <si>
+    <t>Needed for identification.</t>
+  </si>
+  <si>
+    <t>Practitioner.photo</t>
+  </si>
+  <si>
+    <t>Image of the person</t>
+  </si>
+  <si>
+    <t>Image of the person.</t>
+  </si>
+  <si>
+    <t>Many EHR systems have the capability to capture an image of patients and personnel. Fits with newer social media usage too.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification</t>
+  </si>
+  <si>
+    <t>Certification, licenses, or training pertaining to the provision of care</t>
+  </si>
+  <si>
+    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for this qualification for the practitioner</t>
+  </si>
+  <si>
+    <t>An identifier that applies to this person's qualification in this role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.code</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification.</t>
+  </si>
+  <si>
+    <t>Specific qualification the practitioner has to provide a service.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
+  </si>
+  <si>
+    <t>Practitioner.communication</t>
+  </si>
+  <si>
+    <t>A language the practitioner can use in patient communication</t>
+  </si>
+  <si>
+    <t>A language the practitioner can use in patient communication.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+  </si>
+  <si>
+    <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
     <t>openelis-service-request</t>
@@ -4212,7 +4580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B121"/>
+  <dimension ref="A2:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5134,6 +5502,158 @@
         <v>35</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5141,7 +5661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK345"/>
+  <dimension ref="A1:AK380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -36718,7 +37238,7 @@
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>1128</v>
+        <v>72</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
@@ -36740,10 +37260,10 @@
         <v>75</v>
       </c>
       <c r="M300" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="N300" t="s" s="2">
         <v>1129</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>1130</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
@@ -36814,10 +37334,10 @@
         <v>1121</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36825,7 +37345,7 @@
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H301" t="s" s="2">
         <v>79</v>
@@ -36919,10 +37439,10 @@
         <v>1121</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37022,10 +37542,10 @@
         <v>1121</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -37127,10 +37647,10 @@
         <v>1121</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -37232,10 +37752,10 @@
         <v>1121</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37337,10 +37857,10 @@
         <v>1121</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37442,10 +37962,10 @@
         <v>1121</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37547,10 +38067,10 @@
         <v>1121</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37654,10 +38174,10 @@
         <v>1121</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37683,15 +38203,15 @@
         <v>136</v>
       </c>
       <c r="M309" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="N309" t="s" s="2">
         <v>1140</v>
       </c>
-      <c r="N309" t="s" s="2">
+      <c r="O309" s="2"/>
+      <c r="P309" t="s" s="2">
         <v>1141</v>
       </c>
-      <c r="O309" t="s" s="2">
-        <v>1142</v>
-      </c>
-      <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
         <v>72</v>
       </c>
@@ -37739,7 +38259,7 @@
         <v>72</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>73</v>
@@ -37759,10 +38279,10 @@
         <v>1121</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37773,7 +38293,7 @@
         <v>73</v>
       </c>
       <c r="H310" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I310" t="s" s="2">
         <v>72</v>
@@ -37785,22 +38305,26 @@
         <v>80</v>
       </c>
       <c r="L310" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M310" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="N310" t="s" s="2">
         <v>1144</v>
       </c>
-      <c r="M310" t="s" s="2">
+      <c r="O310" t="s" s="2">
         <v>1145</v>
       </c>
-      <c r="N310" t="s" s="2">
+      <c r="P310" t="s" s="2">
         <v>1146</v>
       </c>
-      <c r="O310" t="s" s="2">
-        <v>1147</v>
-      </c>
-      <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R310" s="2"/>
+      <c r="R310" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="S310" t="s" s="2">
         <v>72</v>
       </c>
@@ -37844,13 +38368,13 @@
         <v>72</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI310" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ310" t="s" s="2">
         <v>72</v>
@@ -37864,10 +38388,10 @@
         <v>1121</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37875,10 +38399,10 @@
       </c>
       <c r="F311" s="2"/>
       <c r="G311" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>72</v>
@@ -37890,18 +38414,20 @@
         <v>80</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="M311" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="N311" t="s" s="2">
         <v>1149</v>
       </c>
-      <c r="N311" t="s" s="2">
+      <c r="O311" t="s" s="2">
         <v>1150</v>
       </c>
-      <c r="O311" t="s" s="2">
+      <c r="P311" t="s" s="2">
         <v>1151</v>
       </c>
-      <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
         <v>72</v>
       </c>
@@ -37949,7 +38475,7 @@
         <v>72</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>73</v>
@@ -37976,14 +38502,14 @@
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
-        <v>1153</v>
+        <v>72</v>
       </c>
       <c r="F312" s="2"/>
       <c r="G312" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H312" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I312" t="s" s="2">
         <v>72</v>
@@ -37992,16 +38518,16 @@
         <v>72</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>1154</v>
+        <v>147</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>1155</v>
+        <v>148</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>1156</v>
+        <v>149</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
@@ -38052,19 +38578,19 @@
         <v>72</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>1152</v>
+        <v>150</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI312" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ312" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="313">
@@ -38072,14 +38598,14 @@
         <v>1121</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
-        <v>1158</v>
+        <v>122</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" t="s" s="2">
@@ -38095,18 +38621,20 @@
         <v>72</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1159</v>
+        <v>123</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>1160</v>
+        <v>124</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1161</v>
-      </c>
-      <c r="O313" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O313" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P313" s="2"/>
       <c r="Q313" t="s" s="2">
         <v>72</v>
@@ -38143,19 +38671,19 @@
         <v>72</v>
       </c>
       <c r="AC313" t="s" s="2">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="AD313" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AE313" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>1157</v>
+        <v>156</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>73</v>
@@ -38167,7 +38695,7 @@
         <v>72</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="314">
@@ -38175,14 +38703,14 @@
         <v>1121</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
-        <v>1163</v>
+        <v>72</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
@@ -38195,25 +38723,25 @@
         <v>72</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K314" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="O314" t="s" s="2">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="P314" t="s" s="2">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="Q314" t="s" s="2">
         <v>72</v>
@@ -38238,13 +38766,13 @@
         <v>72</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="Z314" t="s" s="2">
-        <v>72</v>
+        <v>1159</v>
       </c>
       <c r="AA314" t="s" s="2">
-        <v>72</v>
+        <v>1160</v>
       </c>
       <c r="AB314" t="s" s="2">
         <v>72</v>
@@ -38262,7 +38790,7 @@
         <v>72</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>73</v>
@@ -38282,10 +38810,10 @@
         <v>1121</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38293,7 +38821,7 @@
       </c>
       <c r="F315" s="2"/>
       <c r="G315" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H315" t="s" s="2">
         <v>79</v>
@@ -38302,24 +38830,26 @@
         <v>72</v>
       </c>
       <c r="J315" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K315" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="O315" t="s" s="2">
-        <v>1171</v>
-      </c>
-      <c r="P315" s="2"/>
+        <v>1165</v>
+      </c>
+      <c r="P315" t="s" s="2">
+        <v>1166</v>
+      </c>
       <c r="Q315" t="s" s="2">
         <v>72</v>
       </c>
@@ -38343,13 +38873,13 @@
         <v>72</v>
       </c>
       <c r="Y315" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="Z315" t="s" s="2">
-        <v>1172</v>
+        <v>72</v>
       </c>
       <c r="AA315" t="s" s="2">
-        <v>1173</v>
+        <v>72</v>
       </c>
       <c r="AB315" t="s" s="2">
         <v>72</v>
@@ -38367,10 +38897,10 @@
         <v>72</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AH315" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AI315" t="s" s="2">
         <v>79</v>
@@ -38387,18 +38917,18 @@
         <v>1121</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
-        <v>72</v>
+        <v>1169</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H316" t="s" s="2">
         <v>79</v>
@@ -38407,22 +38937,22 @@
         <v>72</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K316" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="P316" s="2"/>
       <c r="Q316" t="s" s="2">
@@ -38448,13 +38978,13 @@
         <v>72</v>
       </c>
       <c r="Y316" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="Z316" t="s" s="2">
-        <v>1178</v>
+        <v>72</v>
       </c>
       <c r="AA316" t="s" s="2">
-        <v>1179</v>
+        <v>72</v>
       </c>
       <c r="AB316" t="s" s="2">
         <v>72</v>
@@ -38472,10 +39002,10 @@
         <v>72</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AH316" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AI316" t="s" s="2">
         <v>79</v>
@@ -38492,14 +39022,14 @@
         <v>1121</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
-        <v>72</v>
+        <v>1175</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" t="s" s="2">
@@ -38518,20 +39048,18 @@
         <v>80</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="O317" t="s" s="2">
-        <v>1183</v>
-      </c>
-      <c r="P317" t="s" s="2">
-        <v>1184</v>
-      </c>
+        <v>1178</v>
+      </c>
+      <c r="P317" s="2"/>
       <c r="Q317" t="s" s="2">
         <v>72</v>
       </c>
@@ -38555,13 +39083,13 @@
         <v>72</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z317" t="s" s="2">
-        <v>1185</v>
+        <v>72</v>
       </c>
       <c r="AA317" t="s" s="2">
-        <v>1186</v>
+        <v>72</v>
       </c>
       <c r="AB317" t="s" s="2">
         <v>72</v>
@@ -38579,7 +39107,7 @@
         <v>72</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>73</v>
@@ -38599,10 +39127,10 @@
         <v>1121</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38613,7 +39141,7 @@
         <v>73</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>72</v>
@@ -38625,22 +39153,20 @@
         <v>80</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>974</v>
+        <v>1181</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
       <c r="Q318" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R318" t="s" s="2">
-        <v>977</v>
-      </c>
+      <c r="R318" s="2"/>
       <c r="S318" t="s" s="2">
         <v>72</v>
       </c>
@@ -38660,13 +39186,13 @@
         <v>72</v>
       </c>
       <c r="Y318" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="Z318" t="s" s="2">
-        <v>1189</v>
+        <v>72</v>
       </c>
       <c r="AA318" t="s" s="2">
-        <v>979</v>
+        <v>72</v>
       </c>
       <c r="AB318" t="s" s="2">
         <v>72</v>
@@ -38684,13 +39210,13 @@
         <v>72</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ318" t="s" s="2">
         <v>72</v>
@@ -38704,10 +39230,10 @@
         <v>1121</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38718,38 +39244,32 @@
         <v>73</v>
       </c>
       <c r="H319" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I319" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K319" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>1192</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>1193</v>
-      </c>
-      <c r="P319" t="s" s="2">
-        <v>1194</v>
-      </c>
+        <v>1186</v>
+      </c>
+      <c r="O319" s="2"/>
+      <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="R319" t="s" s="2">
-        <v>1195</v>
-      </c>
+      <c r="R319" s="2"/>
       <c r="S319" t="s" s="2">
         <v>72</v>
       </c>
@@ -38793,13 +39313,13 @@
         <v>72</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI319" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ319" t="s" s="2">
         <v>72</v>
@@ -38813,18 +39333,18 @@
         <v>1121</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
-        <v>1197</v>
+        <v>72</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>79</v>
@@ -38839,18 +39359,18 @@
         <v>80</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1199</v>
-      </c>
-      <c r="O320" t="s" s="2">
-        <v>1200</v>
-      </c>
-      <c r="P320" s="2"/>
+        <v>1190</v>
+      </c>
+      <c r="O320" s="2"/>
+      <c r="P320" t="s" s="2">
+        <v>1191</v>
+      </c>
       <c r="Q320" t="s" s="2">
         <v>72</v>
       </c>
@@ -38874,13 +39394,13 @@
         <v>72</v>
       </c>
       <c r="Y320" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z320" t="s" s="2">
-        <v>1201</v>
+        <v>72</v>
       </c>
       <c r="AA320" t="s" s="2">
-        <v>1202</v>
+        <v>72</v>
       </c>
       <c r="AB320" t="s" s="2">
         <v>72</v>
@@ -38898,7 +39418,7 @@
         <v>72</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>73</v>
@@ -38918,10 +39438,10 @@
         <v>1121</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38929,7 +39449,7 @@
       </c>
       <c r="F321" s="2"/>
       <c r="G321" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H321" t="s" s="2">
         <v>79</v>
@@ -38941,19 +39461,23 @@
         <v>72</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>148</v>
+        <v>1194</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
+        <v>1195</v>
+      </c>
+      <c r="O321" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="P321" t="s" s="2">
+        <v>1197</v>
+      </c>
       <c r="Q321" t="s" s="2">
         <v>72</v>
       </c>
@@ -39001,19 +39525,19 @@
         <v>72</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>150</v>
+        <v>1193</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI321" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ321" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="322">
@@ -39021,14 +39545,14 @@
         <v>1121</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" t="s" s="2">
@@ -39044,21 +39568,23 @@
         <v>72</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>124</v>
+        <v>1199</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>153</v>
+        <v>1200</v>
       </c>
       <c r="O322" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="P322" s="2"/>
+        <v>1201</v>
+      </c>
+      <c r="P322" t="s" s="2">
+        <v>1202</v>
+      </c>
       <c r="Q322" t="s" s="2">
         <v>72</v>
       </c>
@@ -39094,19 +39620,19 @@
         <v>72</v>
       </c>
       <c r="AC322" t="s" s="2">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="AD322" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="AE322" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AF322" t="s" s="2">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>156</v>
+        <v>1198</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>73</v>
@@ -39118,7 +39644,7 @@
         <v>72</v>
       </c>
       <c r="AK322" t="s" s="2">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="323">
@@ -39126,10 +39652,10 @@
         <v>1121</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -39137,10 +39663,10 @@
       </c>
       <c r="F323" s="2"/>
       <c r="G323" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H323" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I323" t="s" s="2">
         <v>72</v>
@@ -39152,19 +39678,17 @@
         <v>80</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>815</v>
+        <v>99</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>816</v>
+        <v>422</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O323" t="s" s="2">
-        <v>818</v>
-      </c>
+        <v>1204</v>
+      </c>
+      <c r="O323" s="2"/>
       <c r="P323" t="s" s="2">
-        <v>819</v>
+        <v>492</v>
       </c>
       <c r="Q323" t="s" s="2">
         <v>72</v>
@@ -39189,13 +39713,13 @@
         <v>72</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="Z323" t="s" s="2">
-        <v>72</v>
+        <v>426</v>
       </c>
       <c r="AA323" t="s" s="2">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="AB323" t="s" s="2">
         <v>72</v>
@@ -39213,13 +39737,13 @@
         <v>72</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>820</v>
+        <v>1203</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI323" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ323" t="s" s="2">
         <v>72</v>
@@ -39233,10 +39757,10 @@
         <v>1121</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39259,19 +39783,17 @@
         <v>80</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>147</v>
+        <v>429</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>822</v>
+        <v>1206</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>824</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="O324" s="2"/>
       <c r="P324" t="s" s="2">
-        <v>825</v>
+        <v>1208</v>
       </c>
       <c r="Q324" t="s" s="2">
         <v>72</v>
@@ -39320,7 +39842,7 @@
         <v>72</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>826</v>
+        <v>1205</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>73</v>
@@ -39340,14 +39862,14 @@
         <v>1121</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
-        <v>1208</v>
+        <v>72</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" t="s" s="2">
@@ -39363,21 +39885,21 @@
         <v>72</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>169</v>
+        <v>458</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>1210</v>
-      </c>
-      <c r="O325" t="s" s="2">
         <v>1211</v>
       </c>
-      <c r="P325" s="2"/>
+      <c r="O325" s="2"/>
+      <c r="P325" t="s" s="2">
+        <v>1212</v>
+      </c>
       <c r="Q325" t="s" s="2">
         <v>72</v>
       </c>
@@ -39401,13 +39923,13 @@
         <v>72</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>1212</v>
+        <v>72</v>
       </c>
       <c r="AA325" t="s" s="2">
-        <v>1213</v>
+        <v>72</v>
       </c>
       <c r="AB325" t="s" s="2">
         <v>72</v>
@@ -39425,7 +39947,7 @@
         <v>72</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>73</v>
@@ -39434,7 +39956,7 @@
         <v>74</v>
       </c>
       <c r="AJ325" t="s" s="2">
-        <v>1214</v>
+        <v>72</v>
       </c>
       <c r="AK325" t="s" s="2">
         <v>91</v>
@@ -39445,10 +39967,10 @@
         <v>1121</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39459,7 +39981,7 @@
         <v>73</v>
       </c>
       <c r="H326" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I326" t="s" s="2">
         <v>72</v>
@@ -39468,21 +39990,19 @@
         <v>72</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>1216</v>
+        <v>286</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="O326" s="2"/>
-      <c r="P326" t="s" s="2">
-        <v>1219</v>
-      </c>
+      <c r="P326" s="2"/>
       <c r="Q326" t="s" s="2">
         <v>72</v>
       </c>
@@ -39530,13 +40050,13 @@
         <v>72</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI326" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ326" t="s" s="2">
         <v>72</v>
@@ -39550,10 +40070,10 @@
         <v>1121</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39561,7 +40081,7 @@
       </c>
       <c r="F327" s="2"/>
       <c r="G327" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H327" t="s" s="2">
         <v>79</v>
@@ -39573,16 +40093,16 @@
         <v>72</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>604</v>
+        <v>147</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1221</v>
+        <v>148</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1222</v>
+        <v>149</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
@@ -39633,10 +40153,10 @@
         <v>72</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1220</v>
+        <v>150</v>
       </c>
       <c r="AH327" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AI327" t="s" s="2">
         <v>79</v>
@@ -39645,7 +40165,7 @@
         <v>72</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="328">
@@ -39653,21 +40173,21 @@
         <v>1121</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
-        <v>1224</v>
+        <v>122</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H328" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I328" t="s" s="2">
         <v>72</v>
@@ -39676,18 +40196,20 @@
         <v>72</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>616</v>
+        <v>123</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1225</v>
+        <v>124</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1226</v>
-      </c>
-      <c r="O328" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O328" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
         <v>72</v>
@@ -39736,19 +40258,19 @@
         <v>72</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1223</v>
+        <v>156</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI328" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ328" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK328" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="329">
@@ -39756,42 +40278,46 @@
         <v>1121</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
-        <v>1228</v>
+        <v>294</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H329" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I329" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J329" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>1229</v>
+        <v>123</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1230</v>
+        <v>295</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1231</v>
-      </c>
-      <c r="O329" s="2"/>
-      <c r="P329" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O329" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="P329" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="Q329" t="s" s="2">
         <v>72</v>
       </c>
@@ -39839,19 +40365,19 @@
         <v>72</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>1227</v>
+        <v>297</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI329" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ329" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK329" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="330">
@@ -39859,10 +40385,10 @@
         <v>1121</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39873,7 +40399,7 @@
         <v>73</v>
       </c>
       <c r="H330" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I330" t="s" s="2">
         <v>72</v>
@@ -39882,19 +40408,21 @@
         <v>72</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1233</v>
+        <v>136</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="O330" s="2"/>
-      <c r="P330" s="2"/>
+      <c r="P330" t="s" s="2">
+        <v>1222</v>
+      </c>
       <c r="Q330" t="s" s="2">
         <v>72</v>
       </c>
@@ -39918,13 +40446,13 @@
         <v>72</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z330" t="s" s="2">
-        <v>1236</v>
+        <v>72</v>
       </c>
       <c r="AA330" t="s" s="2">
-        <v>1237</v>
+        <v>72</v>
       </c>
       <c r="AB330" t="s" s="2">
         <v>72</v>
@@ -39942,13 +40470,13 @@
         <v>72</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI330" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ330" t="s" s="2">
         <v>72</v>
@@ -39962,18 +40490,18 @@
         <v>1121</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
-        <v>1239</v>
+        <v>72</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H331" t="s" s="2">
         <v>79</v>
@@ -39985,16 +40513,16 @@
         <v>72</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>1007</v>
+        <v>169</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
@@ -40021,13 +40549,13 @@
         <v>72</v>
       </c>
       <c r="Y331" t="s" s="2">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="Z331" t="s" s="2">
-        <v>72</v>
+        <v>1226</v>
       </c>
       <c r="AA331" t="s" s="2">
-        <v>72</v>
+        <v>1227</v>
       </c>
       <c r="AB331" t="s" s="2">
         <v>72</v>
@@ -40045,10 +40573,10 @@
         <v>72</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="AH331" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI331" t="s" s="2">
         <v>79</v>
@@ -40065,14 +40593,14 @@
         <v>1121</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
-        <v>1243</v>
+        <v>72</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" t="s" s="2">
@@ -40088,21 +40616,21 @@
         <v>72</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>1244</v>
+        <v>196</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1246</v>
-      </c>
-      <c r="O332" t="s" s="2">
-        <v>1247</v>
-      </c>
-      <c r="P332" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="O332" s="2"/>
+      <c r="P332" t="s" s="2">
+        <v>1231</v>
+      </c>
       <c r="Q332" t="s" s="2">
         <v>72</v>
       </c>
@@ -40150,7 +40678,7 @@
         <v>72</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>73</v>
@@ -40170,14 +40698,14 @@
         <v>1121</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
-        <v>1249</v>
+        <v>72</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" t="s" s="2">
@@ -40193,20 +40721,18 @@
         <v>72</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>1251</v>
-      </c>
-      <c r="O333" t="s" s="2">
-        <v>1252</v>
-      </c>
+        <v>1234</v>
+      </c>
+      <c r="O333" s="2"/>
       <c r="P333" s="2"/>
       <c r="Q333" t="s" s="2">
         <v>72</v>
@@ -40231,13 +40757,13 @@
         <v>72</v>
       </c>
       <c r="Y333" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z333" t="s" s="2">
-        <v>1253</v>
+        <v>72</v>
       </c>
       <c r="AA333" t="s" s="2">
-        <v>1254</v>
+        <v>72</v>
       </c>
       <c r="AB333" t="s" s="2">
         <v>72</v>
@@ -40255,7 +40781,7 @@
         <v>72</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>73</v>
@@ -40275,14 +40801,14 @@
         <v>1121</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1255</v>
+        <v>1235</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1255</v>
+        <v>1235</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
-        <v>1256</v>
+        <v>72</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" t="s" s="2">
@@ -40298,21 +40824,23 @@
         <v>72</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1257</v>
+        <v>169</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1023</v>
+        <v>1236</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="O334" t="s" s="2">
-        <v>1259</v>
-      </c>
-      <c r="P334" s="2"/>
+        <v>1238</v>
+      </c>
+      <c r="P334" t="s" s="2">
+        <v>1239</v>
+      </c>
       <c r="Q334" t="s" s="2">
         <v>72</v>
       </c>
@@ -40336,13 +40864,13 @@
         <v>72</v>
       </c>
       <c r="Y334" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="Z334" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AA334" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AB334" t="s" s="2">
         <v>72</v>
@@ -40360,7 +40888,7 @@
         <v>72</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>1255</v>
+        <v>1235</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>73</v>
@@ -40377,17 +40905,17 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
-        <v>72</v>
+        <v>1247</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" t="s" s="2">
@@ -40403,16 +40931,16 @@
         <v>72</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="O335" s="2"/>
       <c r="P335" s="2"/>
@@ -40439,13 +40967,13 @@
         <v>72</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>1263</v>
+        <v>72</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>1264</v>
+        <v>72</v>
       </c>
       <c r="AB335" t="s" s="2">
         <v>72</v>
@@ -40463,7 +40991,7 @@
         <v>72</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>73</v>
@@ -40475,18 +41003,18 @@
         <v>72</v>
       </c>
       <c r="AK335" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40497,7 +41025,7 @@
         <v>73</v>
       </c>
       <c r="H336" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I336" t="s" s="2">
         <v>72</v>
@@ -40509,15 +41037,17 @@
         <v>80</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1036</v>
+        <v>81</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1261</v>
+        <v>82</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1266</v>
-      </c>
-      <c r="O336" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="O336" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="P336" s="2"/>
       <c r="Q336" t="s" s="2">
         <v>72</v>
@@ -40566,30 +41096,30 @@
         <v>72</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1265</v>
+        <v>85</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI336" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ336" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK336" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40600,7 +41130,7 @@
         <v>73</v>
       </c>
       <c r="H337" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I337" t="s" s="2">
         <v>72</v>
@@ -40612,17 +41142,15 @@
         <v>80</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1268</v>
+        <v>88</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1269</v>
-      </c>
-      <c r="O337" t="s" s="2">
-        <v>1270</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="O337" s="2"/>
       <c r="P337" s="2"/>
       <c r="Q337" t="s" s="2">
         <v>72</v>
@@ -40647,13 +41175,13 @@
         <v>72</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z337" t="s" s="2">
-        <v>1271</v>
+        <v>72</v>
       </c>
       <c r="AA337" t="s" s="2">
-        <v>1272</v>
+        <v>72</v>
       </c>
       <c r="AB337" t="s" s="2">
         <v>72</v>
@@ -40671,13 +41199,13 @@
         <v>72</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1267</v>
+        <v>90</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI337" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ337" t="s" s="2">
         <v>72</v>
@@ -40688,13 +41216,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40705,28 +41233,28 @@
         <v>73</v>
       </c>
       <c r="H338" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I338" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K338" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1274</v>
+        <v>93</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1275</v>
+        <v>94</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1276</v>
+        <v>95</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1277</v>
+        <v>96</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -40776,13 +41304,13 @@
         <v>72</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1273</v>
+        <v>97</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI338" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ338" t="s" s="2">
         <v>72</v>
@@ -40793,13 +41321,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1278</v>
+        <v>1253</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1278</v>
+        <v>1253</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40810,7 +41338,7 @@
         <v>73</v>
       </c>
       <c r="H339" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I339" t="s" s="2">
         <v>72</v>
@@ -40822,15 +41350,17 @@
         <v>72</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1049</v>
+        <v>99</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1050</v>
+        <v>100</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1279</v>
-      </c>
-      <c r="O339" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="O339" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
         <v>72</v>
@@ -40855,13 +41385,13 @@
         <v>72</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="Z339" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AA339" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AB339" t="s" s="2">
         <v>72</v>
@@ -40879,13 +41409,13 @@
         <v>72</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1278</v>
+        <v>106</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI339" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ339" t="s" s="2">
         <v>72</v>
@@ -40896,24 +41426,24 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1280</v>
+        <v>1254</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1280</v>
+        <v>1254</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
-        <v>1281</v>
+        <v>108</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H340" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I340" t="s" s="2">
         <v>72</v>
@@ -40925,16 +41455,16 @@
         <v>72</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>610</v>
+        <v>109</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1282</v>
+        <v>110</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1283</v>
+        <v>111</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1284</v>
+        <v>112</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -40984,13 +41514,13 @@
         <v>72</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1280</v>
+        <v>113</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI340" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ340" t="s" s="2">
         <v>72</v>
@@ -41001,17 +41531,17 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1285</v>
+        <v>1255</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1285</v>
+        <v>1255</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" t="s" s="2">
@@ -41027,19 +41557,19 @@
         <v>72</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>681</v>
+        <v>116</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1286</v>
+        <v>117</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1287</v>
+        <v>118</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1288</v>
+        <v>119</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
@@ -41089,7 +41619,7 @@
         <v>72</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1285</v>
+        <v>120</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>73</v>
@@ -41101,22 +41631,22 @@
         <v>72</v>
       </c>
       <c r="AK341" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1289</v>
+        <v>1256</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1289</v>
+        <v>1256</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
-        <v>1290</v>
+        <v>122</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" t="s" s="2">
@@ -41132,23 +41662,21 @@
         <v>72</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1291</v>
+        <v>124</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1292</v>
+        <v>125</v>
       </c>
       <c r="O342" t="s" s="2">
-        <v>1293</v>
-      </c>
-      <c r="P342" t="s" s="2">
-        <v>1294</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
         <v>72</v>
       </c>
@@ -41172,13 +41700,13 @@
         <v>72</v>
       </c>
       <c r="Y342" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Z342" t="s" s="2">
-        <v>671</v>
+        <v>72</v>
       </c>
       <c r="AA342" t="s" s="2">
-        <v>672</v>
+        <v>72</v>
       </c>
       <c r="AB342" t="s" s="2">
         <v>72</v>
@@ -41196,7 +41724,7 @@
         <v>72</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1289</v>
+        <v>127</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>73</v>
@@ -41208,22 +41736,22 @@
         <v>72</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1295</v>
+        <v>1257</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1295</v>
+        <v>1257</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" t="s" s="2">
@@ -41236,22 +41764,26 @@
         <v>72</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K343" t="s" s="2">
         <v>72</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>662</v>
+        <v>123</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1296</v>
-      </c>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="P343" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="Q343" t="s" s="2">
         <v>72</v>
       </c>
@@ -41299,7 +41831,7 @@
         <v>72</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>1295</v>
+        <v>133</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>73</v>
@@ -41311,18 +41843,18 @@
         <v>72</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1297</v>
+        <v>1258</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1297</v>
+        <v>1258</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41333,7 +41865,7 @@
         <v>73</v>
       </c>
       <c r="H344" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I344" t="s" s="2">
         <v>72</v>
@@ -41345,15 +41877,17 @@
         <v>80</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1298</v>
+        <v>1259</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1299</v>
-      </c>
-      <c r="O344" s="2"/>
+        <v>1260</v>
+      </c>
+      <c r="O344" t="s" s="2">
+        <v>1261</v>
+      </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
         <v>72</v>
@@ -41402,13 +41936,13 @@
         <v>72</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1297</v>
+        <v>1258</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI344" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ344" t="s" s="2">
         <v>72</v>
@@ -41419,13 +41953,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1300</v>
+        <v>1262</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1300</v>
+        <v>1262</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41445,19 +41979,19 @@
         <v>72</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1057</v>
+        <v>1263</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1301</v>
+        <v>1264</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1302</v>
+        <v>1265</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>1303</v>
+        <v>1266</v>
       </c>
       <c r="P345" s="2"/>
       <c r="Q345" t="s" s="2">
@@ -41507,7 +42041,7 @@
         <v>72</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1300</v>
+        <v>1262</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>73</v>
@@ -41519,6 +42053,3669 @@
         <v>72</v>
       </c>
       <c r="AK345" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>1267</v>
+      </c>
+      <c r="C346" t="s" s="2">
+        <v>1267</v>
+      </c>
+      <c r="D346" s="2"/>
+      <c r="E346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F346" s="2"/>
+      <c r="G346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>1268</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>1269</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>1270</v>
+      </c>
+      <c r="P346" s="2"/>
+      <c r="Q346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R346" s="2"/>
+      <c r="S346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG346" t="s" s="2">
+        <v>1267</v>
+      </c>
+      <c r="AH346" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI346" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ346" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK346" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>1271</v>
+      </c>
+      <c r="C347" t="s" s="2">
+        <v>1271</v>
+      </c>
+      <c r="D347" s="2"/>
+      <c r="E347" t="s" s="2">
+        <v>1272</v>
+      </c>
+      <c r="F347" s="2"/>
+      <c r="G347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>1273</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>1274</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>1275</v>
+      </c>
+      <c r="O347" s="2"/>
+      <c r="P347" s="2"/>
+      <c r="Q347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R347" s="2"/>
+      <c r="S347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG347" t="s" s="2">
+        <v>1271</v>
+      </c>
+      <c r="AH347" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI347" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ347" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK347" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>1276</v>
+      </c>
+      <c r="C348" t="s" s="2">
+        <v>1276</v>
+      </c>
+      <c r="D348" s="2"/>
+      <c r="E348" t="s" s="2">
+        <v>1277</v>
+      </c>
+      <c r="F348" s="2"/>
+      <c r="G348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>1278</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>1279</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>1280</v>
+      </c>
+      <c r="O348" s="2"/>
+      <c r="P348" s="2"/>
+      <c r="Q348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R348" s="2"/>
+      <c r="S348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG348" t="s" s="2">
+        <v>1276</v>
+      </c>
+      <c r="AH348" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI348" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ348" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK348" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>1281</v>
+      </c>
+      <c r="C349" t="s" s="2">
+        <v>1281</v>
+      </c>
+      <c r="D349" s="2"/>
+      <c r="E349" t="s" s="2">
+        <v>1282</v>
+      </c>
+      <c r="F349" s="2"/>
+      <c r="G349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>1283</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>1284</v>
+      </c>
+      <c r="O349" t="s" s="2">
+        <v>1285</v>
+      </c>
+      <c r="P349" t="s" s="2">
+        <v>1286</v>
+      </c>
+      <c r="Q349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R349" s="2"/>
+      <c r="S349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG349" t="s" s="2">
+        <v>1281</v>
+      </c>
+      <c r="AH349" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ349" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK349" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>1287</v>
+      </c>
+      <c r="C350" t="s" s="2">
+        <v>1287</v>
+      </c>
+      <c r="D350" s="2"/>
+      <c r="E350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F350" s="2"/>
+      <c r="G350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>1288</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>1289</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>1290</v>
+      </c>
+      <c r="P350" s="2"/>
+      <c r="Q350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R350" s="2"/>
+      <c r="S350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>1291</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>1292</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>1287</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ350" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK350" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>1293</v>
+      </c>
+      <c r="C351" t="s" s="2">
+        <v>1293</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F351" s="2"/>
+      <c r="G351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>1294</v>
+      </c>
+      <c r="N351" t="s" s="2">
+        <v>1295</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>1296</v>
+      </c>
+      <c r="P351" s="2"/>
+      <c r="Q351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R351" s="2"/>
+      <c r="S351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>1297</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>1298</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG351" t="s" s="2">
+        <v>1293</v>
+      </c>
+      <c r="AH351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ351" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK351" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>1299</v>
+      </c>
+      <c r="C352" t="s" s="2">
+        <v>1299</v>
+      </c>
+      <c r="D352" s="2"/>
+      <c r="E352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F352" s="2"/>
+      <c r="G352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>1300</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>1301</v>
+      </c>
+      <c r="O352" t="s" s="2">
+        <v>1302</v>
+      </c>
+      <c r="P352" t="s" s="2">
+        <v>1303</v>
+      </c>
+      <c r="Q352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R352" s="2"/>
+      <c r="S352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>1304</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>1305</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG352" t="s" s="2">
+        <v>1299</v>
+      </c>
+      <c r="AH352" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI352" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ352" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK352" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>1306</v>
+      </c>
+      <c r="C353" t="s" s="2">
+        <v>1306</v>
+      </c>
+      <c r="D353" s="2"/>
+      <c r="E353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F353" s="2"/>
+      <c r="G353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>1307</v>
+      </c>
+      <c r="O353" s="2"/>
+      <c r="P353" s="2"/>
+      <c r="Q353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R353" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="S353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>1308</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG353" t="s" s="2">
+        <v>1306</v>
+      </c>
+      <c r="AH353" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ353" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK353" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>1309</v>
+      </c>
+      <c r="C354" t="s" s="2">
+        <v>1309</v>
+      </c>
+      <c r="D354" s="2"/>
+      <c r="E354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F354" s="2"/>
+      <c r="G354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>1310</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>1311</v>
+      </c>
+      <c r="O354" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="P354" t="s" s="2">
+        <v>1313</v>
+      </c>
+      <c r="Q354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R354" t="s" s="2">
+        <v>1314</v>
+      </c>
+      <c r="S354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG354" t="s" s="2">
+        <v>1309</v>
+      </c>
+      <c r="AH354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ354" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK354" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>1315</v>
+      </c>
+      <c r="C355" t="s" s="2">
+        <v>1315</v>
+      </c>
+      <c r="D355" s="2"/>
+      <c r="E355" t="s" s="2">
+        <v>1316</v>
+      </c>
+      <c r="F355" s="2"/>
+      <c r="G355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>1317</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="O355" t="s" s="2">
+        <v>1319</v>
+      </c>
+      <c r="P355" s="2"/>
+      <c r="Q355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R355" s="2"/>
+      <c r="S355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>1320</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>1321</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG355" t="s" s="2">
+        <v>1315</v>
+      </c>
+      <c r="AH355" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ355" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK355" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="C356" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="D356" s="2"/>
+      <c r="E356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F356" s="2"/>
+      <c r="G356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N356" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O356" s="2"/>
+      <c r="P356" s="2"/>
+      <c r="Q356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R356" s="2"/>
+      <c r="S356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG356" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK356" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>1323</v>
+      </c>
+      <c r="C357" t="s" s="2">
+        <v>1323</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="F357" s="2"/>
+      <c r="G357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O357" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="P357" s="2"/>
+      <c r="Q357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R357" s="2"/>
+      <c r="S357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF357" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG357" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AH357" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI357" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ357" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK357" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>1324</v>
+      </c>
+      <c r="C358" t="s" s="2">
+        <v>1324</v>
+      </c>
+      <c r="D358" s="2"/>
+      <c r="E358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F358" s="2"/>
+      <c r="G358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="N358" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="O358" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="P358" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Q358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R358" s="2"/>
+      <c r="S358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG358" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK358" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>1325</v>
+      </c>
+      <c r="C359" t="s" s="2">
+        <v>1325</v>
+      </c>
+      <c r="D359" s="2"/>
+      <c r="E359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F359" s="2"/>
+      <c r="G359" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="N359" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="O359" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="P359" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Q359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R359" s="2"/>
+      <c r="S359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG359" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AH359" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ359" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK359" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="C360" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D360" s="2"/>
+      <c r="E360" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="F360" s="2"/>
+      <c r="G360" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L360" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M360" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="N360" t="s" s="2">
+        <v>1329</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>1330</v>
+      </c>
+      <c r="P360" s="2"/>
+      <c r="Q360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R360" s="2"/>
+      <c r="S360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y360" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z360" t="s" s="2">
+        <v>1331</v>
+      </c>
+      <c r="AA360" t="s" s="2">
+        <v>1332</v>
+      </c>
+      <c r="AB360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF360" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG360" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="AH360" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI360" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ360" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="AK360" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>1334</v>
+      </c>
+      <c r="C361" t="s" s="2">
+        <v>1334</v>
+      </c>
+      <c r="D361" s="2"/>
+      <c r="E361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F361" s="2"/>
+      <c r="G361" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>1335</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="N361" t="s" s="2">
+        <v>1337</v>
+      </c>
+      <c r="O361" s="2"/>
+      <c r="P361" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="Q361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R361" s="2"/>
+      <c r="S361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG361" t="s" s="2">
+        <v>1334</v>
+      </c>
+      <c r="AH361" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ361" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK361" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>1339</v>
+      </c>
+      <c r="C362" t="s" s="2">
+        <v>1339</v>
+      </c>
+      <c r="D362" s="2"/>
+      <c r="E362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F362" s="2"/>
+      <c r="G362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>1341</v>
+      </c>
+      <c r="O362" s="2"/>
+      <c r="P362" s="2"/>
+      <c r="Q362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R362" s="2"/>
+      <c r="S362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG362" t="s" s="2">
+        <v>1339</v>
+      </c>
+      <c r="AH362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ362" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK362" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="C363" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="F363" s="2"/>
+      <c r="G363" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>1344</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>1345</v>
+      </c>
+      <c r="O363" s="2"/>
+      <c r="P363" s="2"/>
+      <c r="Q363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R363" s="2"/>
+      <c r="S363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG363" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="AH363" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ363" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK363" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="C364" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="D364" s="2"/>
+      <c r="E364" t="s" s="2">
+        <v>1347</v>
+      </c>
+      <c r="F364" s="2"/>
+      <c r="G364" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>1348</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>1349</v>
+      </c>
+      <c r="N364" t="s" s="2">
+        <v>1350</v>
+      </c>
+      <c r="O364" s="2"/>
+      <c r="P364" s="2"/>
+      <c r="Q364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R364" s="2"/>
+      <c r="S364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG364" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="AH364" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ364" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK364" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>1351</v>
+      </c>
+      <c r="C365" t="s" s="2">
+        <v>1351</v>
+      </c>
+      <c r="D365" s="2"/>
+      <c r="E365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F365" s="2"/>
+      <c r="G365" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>1352</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>1353</v>
+      </c>
+      <c r="N365" t="s" s="2">
+        <v>1354</v>
+      </c>
+      <c r="O365" s="2"/>
+      <c r="P365" s="2"/>
+      <c r="Q365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R365" s="2"/>
+      <c r="S365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>1355</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>1356</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG365" t="s" s="2">
+        <v>1351</v>
+      </c>
+      <c r="AH365" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ365" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK365" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>1357</v>
+      </c>
+      <c r="C366" t="s" s="2">
+        <v>1357</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" t="s" s="2">
+        <v>1358</v>
+      </c>
+      <c r="F366" s="2"/>
+      <c r="G366" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>1359</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>1360</v>
+      </c>
+      <c r="O366" s="2"/>
+      <c r="P366" s="2"/>
+      <c r="Q366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R366" s="2"/>
+      <c r="S366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>1357</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK366" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="C367" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" t="s" s="2">
+        <v>1362</v>
+      </c>
+      <c r="F367" s="2"/>
+      <c r="G367" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>1363</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>1364</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>1365</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>1366</v>
+      </c>
+      <c r="P367" s="2"/>
+      <c r="Q367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R367" s="2"/>
+      <c r="S367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG367" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="AH367" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ367" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK367" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>1367</v>
+      </c>
+      <c r="C368" t="s" s="2">
+        <v>1367</v>
+      </c>
+      <c r="D368" s="2"/>
+      <c r="E368" t="s" s="2">
+        <v>1368</v>
+      </c>
+      <c r="F368" s="2"/>
+      <c r="G368" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>1369</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>1370</v>
+      </c>
+      <c r="O368" t="s" s="2">
+        <v>1371</v>
+      </c>
+      <c r="P368" s="2"/>
+      <c r="Q368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R368" s="2"/>
+      <c r="S368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>1372</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>1373</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG368" t="s" s="2">
+        <v>1367</v>
+      </c>
+      <c r="AH368" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ368" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK368" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>1374</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>1374</v>
+      </c>
+      <c r="D369" s="2"/>
+      <c r="E369" t="s" s="2">
+        <v>1375</v>
+      </c>
+      <c r="F369" s="2"/>
+      <c r="G369" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>1377</v>
+      </c>
+      <c r="O369" t="s" s="2">
+        <v>1378</v>
+      </c>
+      <c r="P369" s="2"/>
+      <c r="Q369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R369" s="2"/>
+      <c r="S369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG369" t="s" s="2">
+        <v>1374</v>
+      </c>
+      <c r="AH369" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI369" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>1379</v>
+      </c>
+      <c r="C370" t="s" s="2">
+        <v>1379</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F370" s="2"/>
+      <c r="G370" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>1381</v>
+      </c>
+      <c r="O370" s="2"/>
+      <c r="P370" s="2"/>
+      <c r="Q370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R370" s="2"/>
+      <c r="S370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>1382</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>1383</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>1379</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>1384</v>
+      </c>
+      <c r="C371" t="s" s="2">
+        <v>1384</v>
+      </c>
+      <c r="D371" s="2"/>
+      <c r="E371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F371" s="2"/>
+      <c r="G371" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>1385</v>
+      </c>
+      <c r="O371" s="2"/>
+      <c r="P371" s="2"/>
+      <c r="Q371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R371" s="2"/>
+      <c r="S371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>1384</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>1386</v>
+      </c>
+      <c r="C372" t="s" s="2">
+        <v>1386</v>
+      </c>
+      <c r="D372" s="2"/>
+      <c r="E372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F372" s="2"/>
+      <c r="G372" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>1387</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>1388</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>1389</v>
+      </c>
+      <c r="P372" s="2"/>
+      <c r="Q372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R372" s="2"/>
+      <c r="S372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>1390</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>1391</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>1386</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>1392</v>
+      </c>
+      <c r="C373" t="s" s="2">
+        <v>1392</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F373" s="2"/>
+      <c r="G373" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>1393</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>1394</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>1395</v>
+      </c>
+      <c r="O373" t="s" s="2">
+        <v>1396</v>
+      </c>
+      <c r="P373" s="2"/>
+      <c r="Q373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R373" s="2"/>
+      <c r="S373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>1392</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK373" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="C374" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F374" s="2"/>
+      <c r="G374" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>1398</v>
+      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" s="2"/>
+      <c r="Q374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R374" s="2"/>
+      <c r="S374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>1399</v>
+      </c>
+      <c r="C375" t="s" s="2">
+        <v>1399</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F375" s="2"/>
+      <c r="G375" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>1401</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>1402</v>
+      </c>
+      <c r="O375" t="s" s="2">
+        <v>1403</v>
+      </c>
+      <c r="P375" s="2"/>
+      <c r="Q375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R375" s="2"/>
+      <c r="S375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>1399</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>1404</v>
+      </c>
+      <c r="C376" t="s" s="2">
+        <v>1404</v>
+      </c>
+      <c r="D376" s="2"/>
+      <c r="E376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F376" s="2"/>
+      <c r="G376" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>1405</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>1406</v>
+      </c>
+      <c r="O376" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="P376" s="2"/>
+      <c r="Q376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R376" s="2"/>
+      <c r="S376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>1404</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>1408</v>
+      </c>
+      <c r="C377" t="s" s="2">
+        <v>1408</v>
+      </c>
+      <c r="D377" s="2"/>
+      <c r="E377" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="F377" s="2"/>
+      <c r="G377" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>1410</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>1411</v>
+      </c>
+      <c r="O377" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="P377" t="s" s="2">
+        <v>1413</v>
+      </c>
+      <c r="Q377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R377" s="2"/>
+      <c r="S377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>1408</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>1414</v>
+      </c>
+      <c r="C378" t="s" s="2">
+        <v>1414</v>
+      </c>
+      <c r="D378" s="2"/>
+      <c r="E378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F378" s="2"/>
+      <c r="G378" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>1415</v>
+      </c>
+      <c r="O378" s="2"/>
+      <c r="P378" s="2"/>
+      <c r="Q378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R378" s="2"/>
+      <c r="S378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG378" t="s" s="2">
+        <v>1414</v>
+      </c>
+      <c r="AH378" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ378" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK378" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>1416</v>
+      </c>
+      <c r="C379" t="s" s="2">
+        <v>1416</v>
+      </c>
+      <c r="D379" s="2"/>
+      <c r="E379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F379" s="2"/>
+      <c r="G379" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>1417</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>1418</v>
+      </c>
+      <c r="O379" s="2"/>
+      <c r="P379" s="2"/>
+      <c r="Q379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R379" s="2"/>
+      <c r="S379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG379" t="s" s="2">
+        <v>1416</v>
+      </c>
+      <c r="AH379" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ379" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK379" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>1419</v>
+      </c>
+      <c r="C380" t="s" s="2">
+        <v>1419</v>
+      </c>
+      <c r="D380" s="2"/>
+      <c r="E380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F380" s="2"/>
+      <c r="G380" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>1420</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>1421</v>
+      </c>
+      <c r="O380" t="s" s="2">
+        <v>1422</v>
+      </c>
+      <c r="P380" s="2"/>
+      <c r="Q380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R380" s="2"/>
+      <c r="S380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG380" t="s" s="2">
+        <v>1419</v>
+      </c>
+      <c r="AH380" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ380" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK380" t="s" s="2">
         <v>91</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:08+00:00</t>
+    <t>2023-03-03T05:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17288" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17520" uniqueCount="1747">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:15+00:00</t>
+    <t>2023-03-05T22:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5098,6 +5098,27 @@
   </si>
   <si>
     <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.system</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.version</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.display</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.userSelected</t>
   </si>
   <si>
     <t>ServiceRequest.code.text</t>
@@ -6776,7 +6797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK513"/>
+  <dimension ref="A1:AK520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -58493,23 +58514,19 @@
         <v>72</v>
       </c>
       <c r="K492" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L492" t="s" s="2">
         <v>144</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O492" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="P492" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O492" s="2"/>
+      <c r="P492" s="2"/>
       <c r="Q492" t="s" s="2">
         <v>72</v>
       </c>
@@ -58557,7 +58574,7 @@
         <v>72</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>73</v>
@@ -58569,7 +58586,7 @@
         <v>72</v>
       </c>
       <c r="AK492" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="493">
@@ -58584,7 +58601,7 @@
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
-        <v>1644</v>
+        <v>122</v>
       </c>
       <c r="F493" s="2"/>
       <c r="G493" t="s" s="2">
@@ -58600,19 +58617,19 @@
         <v>72</v>
       </c>
       <c r="K493" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L493" t="s" s="2">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="M493" t="s" s="2">
-        <v>1645</v>
+        <v>124</v>
       </c>
       <c r="N493" t="s" s="2">
-        <v>1646</v>
+        <v>150</v>
       </c>
       <c r="O493" t="s" s="2">
-        <v>1647</v>
+        <v>126</v>
       </c>
       <c r="P493" s="2"/>
       <c r="Q493" t="s" s="2">
@@ -58638,31 +58655,31 @@
         <v>72</v>
       </c>
       <c r="Y493" t="s" s="2">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="Z493" t="s" s="2">
-        <v>1648</v>
+        <v>72</v>
       </c>
       <c r="AA493" t="s" s="2">
-        <v>1649</v>
+        <v>72</v>
       </c>
       <c r="AB493" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AC493" t="s" s="2">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="AD493" t="s" s="2">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="AE493" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AF493" t="s" s="2">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>1643</v>
+        <v>153</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>73</v>
@@ -58671,10 +58688,10 @@
         <v>74</v>
       </c>
       <c r="AJ493" t="s" s="2">
-        <v>1650</v>
+        <v>72</v>
       </c>
       <c r="AK493" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="494">
@@ -58682,10 +58699,10 @@
         <v>1530</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -58708,17 +58725,19 @@
         <v>80</v>
       </c>
       <c r="L494" t="s" s="2">
-        <v>1652</v>
+        <v>93</v>
       </c>
       <c r="M494" t="s" s="2">
-        <v>1653</v>
+        <v>239</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>1654</v>
-      </c>
-      <c r="O494" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="O494" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P494" t="s" s="2">
-        <v>1655</v>
+        <v>242</v>
       </c>
       <c r="Q494" t="s" s="2">
         <v>72</v>
@@ -58767,7 +58786,7 @@
         <v>72</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>1651</v>
+        <v>243</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>73</v>
@@ -58787,10 +58806,10 @@
         <v>1530</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1656</v>
+        <v>1645</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1656</v>
+        <v>1645</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -58798,7 +58817,7 @@
       </c>
       <c r="F495" s="2"/>
       <c r="G495" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H495" t="s" s="2">
         <v>79</v>
@@ -58813,15 +58832,17 @@
         <v>80</v>
       </c>
       <c r="L495" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="M495" t="s" s="2">
-        <v>1657</v>
+        <v>245</v>
       </c>
       <c r="N495" t="s" s="2">
-        <v>1658</v>
-      </c>
-      <c r="O495" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O495" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P495" s="2"/>
       <c r="Q495" t="s" s="2">
         <v>72</v>
@@ -58870,10 +58891,10 @@
         <v>72</v>
       </c>
       <c r="AG495" t="s" s="2">
-        <v>1656</v>
+        <v>248</v>
       </c>
       <c r="AH495" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AI495" t="s" s="2">
         <v>79</v>
@@ -58890,14 +58911,14 @@
         <v>1530</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
-        <v>1660</v>
+        <v>72</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" t="s" s="2">
@@ -58916,16 +58937,18 @@
         <v>80</v>
       </c>
       <c r="L496" t="s" s="2">
-        <v>908</v>
+        <v>99</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>1661</v>
+        <v>250</v>
       </c>
       <c r="N496" t="s" s="2">
-        <v>1662</v>
+        <v>251</v>
       </c>
       <c r="O496" s="2"/>
-      <c r="P496" s="2"/>
+      <c r="P496" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="Q496" t="s" s="2">
         <v>72</v>
       </c>
@@ -58973,7 +58996,7 @@
         <v>72</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>1659</v>
+        <v>253</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>73</v>
@@ -58993,14 +59016,14 @@
         <v>1530</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
-        <v>1664</v>
+        <v>72</v>
       </c>
       <c r="F497" s="2"/>
       <c r="G497" t="s" s="2">
@@ -59019,16 +59042,18 @@
         <v>80</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>1665</v>
+        <v>144</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>1666</v>
+        <v>255</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>1667</v>
+        <v>256</v>
       </c>
       <c r="O497" s="2"/>
-      <c r="P497" s="2"/>
+      <c r="P497" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="Q497" t="s" s="2">
         <v>72</v>
       </c>
@@ -59076,7 +59101,7 @@
         <v>72</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>1663</v>
+        <v>258</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>73</v>
@@ -59096,10 +59121,10 @@
         <v>1530</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1668</v>
+        <v>1648</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1668</v>
+        <v>1648</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -59122,16 +59147,20 @@
         <v>80</v>
       </c>
       <c r="L498" t="s" s="2">
-        <v>1669</v>
+        <v>260</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>1670</v>
+        <v>261</v>
       </c>
       <c r="N498" t="s" s="2">
-        <v>1671</v>
-      </c>
-      <c r="O498" s="2"/>
-      <c r="P498" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O498" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P498" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="Q498" t="s" s="2">
         <v>72</v>
       </c>
@@ -59155,13 +59184,13 @@
         <v>72</v>
       </c>
       <c r="Y498" t="s" s="2">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="Z498" t="s" s="2">
-        <v>1672</v>
+        <v>72</v>
       </c>
       <c r="AA498" t="s" s="2">
-        <v>1673</v>
+        <v>72</v>
       </c>
       <c r="AB498" t="s" s="2">
         <v>72</v>
@@ -59179,7 +59208,7 @@
         <v>72</v>
       </c>
       <c r="AG498" t="s" s="2">
-        <v>1668</v>
+        <v>265</v>
       </c>
       <c r="AH498" t="s" s="2">
         <v>73</v>
@@ -59199,14 +59228,14 @@
         <v>1530</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1674</v>
+        <v>1649</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1674</v>
+        <v>1649</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
-        <v>1675</v>
+        <v>72</v>
       </c>
       <c r="F499" s="2"/>
       <c r="G499" t="s" s="2">
@@ -59225,16 +59254,20 @@
         <v>80</v>
       </c>
       <c r="L499" t="s" s="2">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="M499" t="s" s="2">
-        <v>1676</v>
+        <v>267</v>
       </c>
       <c r="N499" t="s" s="2">
-        <v>1677</v>
-      </c>
-      <c r="O499" s="2"/>
-      <c r="P499" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O499" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P499" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="Q499" t="s" s="2">
         <v>72</v>
       </c>
@@ -59282,7 +59315,7 @@
         <v>72</v>
       </c>
       <c r="AG499" t="s" s="2">
-        <v>1674</v>
+        <v>271</v>
       </c>
       <c r="AH499" t="s" s="2">
         <v>73</v>
@@ -59302,21 +59335,21 @@
         <v>1530</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1678</v>
+        <v>1650</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1678</v>
+        <v>1650</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
-        <v>1679</v>
+        <v>1651</v>
       </c>
       <c r="F500" s="2"/>
       <c r="G500" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H500" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I500" t="s" s="2">
         <v>72</v>
@@ -59328,16 +59361,16 @@
         <v>80</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>1680</v>
+        <v>166</v>
       </c>
       <c r="M500" t="s" s="2">
-        <v>1681</v>
+        <v>1652</v>
       </c>
       <c r="N500" t="s" s="2">
-        <v>1682</v>
+        <v>1653</v>
       </c>
       <c r="O500" t="s" s="2">
-        <v>1683</v>
+        <v>1654</v>
       </c>
       <c r="P500" s="2"/>
       <c r="Q500" t="s" s="2">
@@ -59363,13 +59396,13 @@
         <v>72</v>
       </c>
       <c r="Y500" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="Z500" t="s" s="2">
-        <v>72</v>
+        <v>1655</v>
       </c>
       <c r="AA500" t="s" s="2">
-        <v>72</v>
+        <v>1656</v>
       </c>
       <c r="AB500" t="s" s="2">
         <v>72</v>
@@ -59387,16 +59420,16 @@
         <v>72</v>
       </c>
       <c r="AG500" t="s" s="2">
-        <v>1678</v>
+        <v>1650</v>
       </c>
       <c r="AH500" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI500" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ500" t="s" s="2">
-        <v>72</v>
+        <v>1657</v>
       </c>
       <c r="AK500" t="s" s="2">
         <v>91</v>
@@ -59407,14 +59440,14 @@
         <v>1530</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1684</v>
+        <v>1658</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1684</v>
+        <v>1658</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
-        <v>1685</v>
+        <v>72</v>
       </c>
       <c r="F501" s="2"/>
       <c r="G501" t="s" s="2">
@@ -59433,18 +59466,18 @@
         <v>80</v>
       </c>
       <c r="L501" t="s" s="2">
-        <v>166</v>
+        <v>1659</v>
       </c>
       <c r="M501" t="s" s="2">
-        <v>1686</v>
+        <v>1660</v>
       </c>
       <c r="N501" t="s" s="2">
-        <v>1687</v>
-      </c>
-      <c r="O501" t="s" s="2">
-        <v>1688</v>
-      </c>
-      <c r="P501" s="2"/>
+        <v>1661</v>
+      </c>
+      <c r="O501" s="2"/>
+      <c r="P501" t="s" s="2">
+        <v>1662</v>
+      </c>
       <c r="Q501" t="s" s="2">
         <v>72</v>
       </c>
@@ -59468,13 +59501,13 @@
         <v>72</v>
       </c>
       <c r="Y501" t="s" s="2">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="Z501" t="s" s="2">
-        <v>1689</v>
+        <v>72</v>
       </c>
       <c r="AA501" t="s" s="2">
-        <v>1690</v>
+        <v>72</v>
       </c>
       <c r="AB501" t="s" s="2">
         <v>72</v>
@@ -59492,7 +59525,7 @@
         <v>72</v>
       </c>
       <c r="AG501" t="s" s="2">
-        <v>1684</v>
+        <v>1658</v>
       </c>
       <c r="AH501" t="s" s="2">
         <v>73</v>
@@ -59512,21 +59545,21 @@
         <v>1530</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1691</v>
+        <v>1663</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1691</v>
+        <v>1663</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
-        <v>1692</v>
+        <v>72</v>
       </c>
       <c r="F502" s="2"/>
       <c r="G502" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H502" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I502" t="s" s="2">
         <v>72</v>
@@ -59538,17 +59571,15 @@
         <v>80</v>
       </c>
       <c r="L502" t="s" s="2">
-        <v>1693</v>
+        <v>273</v>
       </c>
       <c r="M502" t="s" s="2">
-        <v>1314</v>
+        <v>1664</v>
       </c>
       <c r="N502" t="s" s="2">
-        <v>1694</v>
-      </c>
-      <c r="O502" t="s" s="2">
-        <v>1695</v>
-      </c>
+        <v>1665</v>
+      </c>
+      <c r="O502" s="2"/>
       <c r="P502" s="2"/>
       <c r="Q502" t="s" s="2">
         <v>72</v>
@@ -59597,13 +59628,13 @@
         <v>72</v>
       </c>
       <c r="AG502" t="s" s="2">
-        <v>1691</v>
+        <v>1663</v>
       </c>
       <c r="AH502" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI502" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ502" t="s" s="2">
         <v>72</v>
@@ -59617,21 +59648,21 @@
         <v>1530</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="F503" s="2"/>
       <c r="G503" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H503" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I503" t="s" s="2">
         <v>72</v>
@@ -59643,13 +59674,13 @@
         <v>80</v>
       </c>
       <c r="L503" t="s" s="2">
-        <v>166</v>
+        <v>908</v>
       </c>
       <c r="M503" t="s" s="2">
-        <v>1697</v>
+        <v>1668</v>
       </c>
       <c r="N503" t="s" s="2">
-        <v>1698</v>
+        <v>1669</v>
       </c>
       <c r="O503" s="2"/>
       <c r="P503" s="2"/>
@@ -59676,13 +59707,13 @@
         <v>72</v>
       </c>
       <c r="Y503" t="s" s="2">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="Z503" t="s" s="2">
-        <v>1699</v>
+        <v>72</v>
       </c>
       <c r="AA503" t="s" s="2">
-        <v>1700</v>
+        <v>72</v>
       </c>
       <c r="AB503" t="s" s="2">
         <v>72</v>
@@ -59700,13 +59731,13 @@
         <v>72</v>
       </c>
       <c r="AG503" t="s" s="2">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="AH503" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI503" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ503" t="s" s="2">
         <v>72</v>
@@ -59720,18 +59751,18 @@
         <v>1530</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1701</v>
+        <v>1670</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1701</v>
+        <v>1670</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
-        <v>72</v>
+        <v>1671</v>
       </c>
       <c r="F504" s="2"/>
       <c r="G504" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H504" t="s" s="2">
         <v>79</v>
@@ -59746,13 +59777,13 @@
         <v>80</v>
       </c>
       <c r="L504" t="s" s="2">
-        <v>1327</v>
+        <v>1672</v>
       </c>
       <c r="M504" t="s" s="2">
-        <v>1697</v>
+        <v>1673</v>
       </c>
       <c r="N504" t="s" s="2">
-        <v>1702</v>
+        <v>1674</v>
       </c>
       <c r="O504" s="2"/>
       <c r="P504" s="2"/>
@@ -59803,13 +59834,13 @@
         <v>72</v>
       </c>
       <c r="AG504" t="s" s="2">
-        <v>1701</v>
+        <v>1670</v>
       </c>
       <c r="AH504" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI504" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ504" t="s" s="2">
         <v>72</v>
@@ -59823,10 +59854,10 @@
         <v>1530</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1703</v>
+        <v>1675</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1703</v>
+        <v>1675</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -59837,7 +59868,7 @@
         <v>73</v>
       </c>
       <c r="H505" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I505" t="s" s="2">
         <v>72</v>
@@ -59849,17 +59880,15 @@
         <v>80</v>
       </c>
       <c r="L505" t="s" s="2">
-        <v>166</v>
+        <v>1676</v>
       </c>
       <c r="M505" t="s" s="2">
-        <v>1704</v>
+        <v>1677</v>
       </c>
       <c r="N505" t="s" s="2">
-        <v>1705</v>
-      </c>
-      <c r="O505" t="s" s="2">
-        <v>1706</v>
-      </c>
+        <v>1678</v>
+      </c>
+      <c r="O505" s="2"/>
       <c r="P505" s="2"/>
       <c r="Q505" t="s" s="2">
         <v>72</v>
@@ -59887,10 +59916,10 @@
         <v>224</v>
       </c>
       <c r="Z505" t="s" s="2">
-        <v>1707</v>
+        <v>1679</v>
       </c>
       <c r="AA505" t="s" s="2">
-        <v>1708</v>
+        <v>1680</v>
       </c>
       <c r="AB505" t="s" s="2">
         <v>72</v>
@@ -59908,13 +59937,13 @@
         <v>72</v>
       </c>
       <c r="AG505" t="s" s="2">
-        <v>1703</v>
+        <v>1675</v>
       </c>
       <c r="AH505" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI505" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ505" t="s" s="2">
         <v>72</v>
@@ -59928,21 +59957,21 @@
         <v>1530</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1709</v>
+        <v>1681</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1709</v>
+        <v>1681</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
-        <v>72</v>
+        <v>1682</v>
       </c>
       <c r="F506" s="2"/>
       <c r="G506" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H506" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I506" t="s" s="2">
         <v>72</v>
@@ -59954,17 +59983,15 @@
         <v>80</v>
       </c>
       <c r="L506" t="s" s="2">
-        <v>1710</v>
+        <v>278</v>
       </c>
       <c r="M506" t="s" s="2">
-        <v>1711</v>
+        <v>1683</v>
       </c>
       <c r="N506" t="s" s="2">
-        <v>1712</v>
-      </c>
-      <c r="O506" t="s" s="2">
-        <v>1713</v>
-      </c>
+        <v>1684</v>
+      </c>
+      <c r="O506" s="2"/>
       <c r="P506" s="2"/>
       <c r="Q506" t="s" s="2">
         <v>72</v>
@@ -60013,13 +60040,13 @@
         <v>72</v>
       </c>
       <c r="AG506" t="s" s="2">
-        <v>1709</v>
+        <v>1681</v>
       </c>
       <c r="AH506" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI506" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ506" t="s" s="2">
         <v>72</v>
@@ -60033,21 +60060,21 @@
         <v>1530</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1714</v>
+        <v>1685</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1714</v>
+        <v>1685</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
-        <v>72</v>
+        <v>1686</v>
       </c>
       <c r="F507" s="2"/>
       <c r="G507" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H507" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I507" t="s" s="2">
         <v>72</v>
@@ -60056,18 +60083,20 @@
         <v>72</v>
       </c>
       <c r="K507" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L507" t="s" s="2">
-        <v>1340</v>
+        <v>1687</v>
       </c>
       <c r="M507" t="s" s="2">
-        <v>1341</v>
+        <v>1688</v>
       </c>
       <c r="N507" t="s" s="2">
-        <v>1715</v>
-      </c>
-      <c r="O507" s="2"/>
+        <v>1689</v>
+      </c>
+      <c r="O507" t="s" s="2">
+        <v>1690</v>
+      </c>
       <c r="P507" s="2"/>
       <c r="Q507" t="s" s="2">
         <v>72</v>
@@ -60116,13 +60145,13 @@
         <v>72</v>
       </c>
       <c r="AG507" t="s" s="2">
-        <v>1714</v>
+        <v>1685</v>
       </c>
       <c r="AH507" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI507" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ507" t="s" s="2">
         <v>72</v>
@@ -60136,21 +60165,21 @@
         <v>1530</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1716</v>
+        <v>1691</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1716</v>
+        <v>1691</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
-        <v>1717</v>
+        <v>1692</v>
       </c>
       <c r="F508" s="2"/>
       <c r="G508" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H508" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I508" t="s" s="2">
         <v>72</v>
@@ -60159,19 +60188,19 @@
         <v>72</v>
       </c>
       <c r="K508" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L508" t="s" s="2">
-        <v>902</v>
+        <v>166</v>
       </c>
       <c r="M508" t="s" s="2">
-        <v>1718</v>
+        <v>1693</v>
       </c>
       <c r="N508" t="s" s="2">
-        <v>1719</v>
+        <v>1694</v>
       </c>
       <c r="O508" t="s" s="2">
-        <v>1720</v>
+        <v>1695</v>
       </c>
       <c r="P508" s="2"/>
       <c r="Q508" t="s" s="2">
@@ -60197,13 +60226,13 @@
         <v>72</v>
       </c>
       <c r="Y508" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="Z508" t="s" s="2">
-        <v>72</v>
+        <v>1696</v>
       </c>
       <c r="AA508" t="s" s="2">
-        <v>72</v>
+        <v>1697</v>
       </c>
       <c r="AB508" t="s" s="2">
         <v>72</v>
@@ -60221,13 +60250,13 @@
         <v>72</v>
       </c>
       <c r="AG508" t="s" s="2">
-        <v>1716</v>
+        <v>1691</v>
       </c>
       <c r="AH508" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI508" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ508" t="s" s="2">
         <v>72</v>
@@ -60241,21 +60270,21 @@
         <v>1530</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1721</v>
+        <v>1698</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1721</v>
+        <v>1698</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
-        <v>72</v>
+        <v>1699</v>
       </c>
       <c r="F509" s="2"/>
       <c r="G509" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H509" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I509" t="s" s="2">
         <v>72</v>
@@ -60267,16 +60296,16 @@
         <v>80</v>
       </c>
       <c r="L509" t="s" s="2">
-        <v>1155</v>
+        <v>1700</v>
       </c>
       <c r="M509" t="s" s="2">
-        <v>1722</v>
+        <v>1314</v>
       </c>
       <c r="N509" t="s" s="2">
-        <v>1723</v>
+        <v>1701</v>
       </c>
       <c r="O509" t="s" s="2">
-        <v>1724</v>
+        <v>1702</v>
       </c>
       <c r="P509" s="2"/>
       <c r="Q509" t="s" s="2">
@@ -60326,7 +60355,7 @@
         <v>72</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>1721</v>
+        <v>1698</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>73</v>
@@ -60346,14 +60375,14 @@
         <v>1530</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1725</v>
+        <v>1703</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1725</v>
+        <v>1703</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
-        <v>1726</v>
+        <v>72</v>
       </c>
       <c r="F510" s="2"/>
       <c r="G510" t="s" s="2">
@@ -60375,17 +60404,13 @@
         <v>166</v>
       </c>
       <c r="M510" t="s" s="2">
-        <v>1727</v>
+        <v>1704</v>
       </c>
       <c r="N510" t="s" s="2">
-        <v>1728</v>
-      </c>
-      <c r="O510" t="s" s="2">
-        <v>1729</v>
-      </c>
-      <c r="P510" t="s" s="2">
-        <v>1730</v>
-      </c>
+        <v>1705</v>
+      </c>
+      <c r="O510" s="2"/>
+      <c r="P510" s="2"/>
       <c r="Q510" t="s" s="2">
         <v>72</v>
       </c>
@@ -60412,10 +60437,10 @@
         <v>224</v>
       </c>
       <c r="Z510" t="s" s="2">
-        <v>330</v>
+        <v>1706</v>
       </c>
       <c r="AA510" t="s" s="2">
-        <v>331</v>
+        <v>1707</v>
       </c>
       <c r="AB510" t="s" s="2">
         <v>72</v>
@@ -60433,7 +60458,7 @@
         <v>72</v>
       </c>
       <c r="AG510" t="s" s="2">
-        <v>1725</v>
+        <v>1703</v>
       </c>
       <c r="AH510" t="s" s="2">
         <v>73</v>
@@ -60453,10 +60478,10 @@
         <v>1530</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1731</v>
+        <v>1708</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1731</v>
+        <v>1708</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -60464,7 +60489,7 @@
       </c>
       <c r="F511" s="2"/>
       <c r="G511" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H511" t="s" s="2">
         <v>79</v>
@@ -60476,16 +60501,16 @@
         <v>72</v>
       </c>
       <c r="K511" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L511" t="s" s="2">
-        <v>399</v>
+        <v>1327</v>
       </c>
       <c r="M511" t="s" s="2">
-        <v>49</v>
+        <v>1704</v>
       </c>
       <c r="N511" t="s" s="2">
-        <v>1732</v>
+        <v>1709</v>
       </c>
       <c r="O511" s="2"/>
       <c r="P511" s="2"/>
@@ -60536,7 +60561,7 @@
         <v>72</v>
       </c>
       <c r="AG511" t="s" s="2">
-        <v>1731</v>
+        <v>1708</v>
       </c>
       <c r="AH511" t="s" s="2">
         <v>73</v>
@@ -60556,10 +60581,10 @@
         <v>1530</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -60570,7 +60595,7 @@
         <v>73</v>
       </c>
       <c r="H512" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I512" t="s" s="2">
         <v>72</v>
@@ -60582,15 +60607,17 @@
         <v>80</v>
       </c>
       <c r="L512" t="s" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="M512" t="s" s="2">
-        <v>1734</v>
+        <v>1711</v>
       </c>
       <c r="N512" t="s" s="2">
-        <v>1735</v>
-      </c>
-      <c r="O512" s="2"/>
+        <v>1712</v>
+      </c>
+      <c r="O512" t="s" s="2">
+        <v>1713</v>
+      </c>
       <c r="P512" s="2"/>
       <c r="Q512" t="s" s="2">
         <v>72</v>
@@ -60615,13 +60642,13 @@
         <v>72</v>
       </c>
       <c r="Y512" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="Z512" t="s" s="2">
-        <v>72</v>
+        <v>1714</v>
       </c>
       <c r="AA512" t="s" s="2">
-        <v>72</v>
+        <v>1715</v>
       </c>
       <c r="AB512" t="s" s="2">
         <v>72</v>
@@ -60639,13 +60666,13 @@
         <v>72</v>
       </c>
       <c r="AG512" t="s" s="2">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="AH512" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI512" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ512" t="s" s="2">
         <v>72</v>
@@ -60659,10 +60686,10 @@
         <v>1530</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" t="s" s="2">
@@ -60682,19 +60709,19 @@
         <v>72</v>
       </c>
       <c r="K513" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L513" t="s" s="2">
-        <v>1348</v>
+        <v>1717</v>
       </c>
       <c r="M513" t="s" s="2">
-        <v>1737</v>
+        <v>1718</v>
       </c>
       <c r="N513" t="s" s="2">
-        <v>1738</v>
+        <v>1719</v>
       </c>
       <c r="O513" t="s" s="2">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="P513" s="2"/>
       <c r="Q513" t="s" s="2">
@@ -60744,7 +60771,7 @@
         <v>72</v>
       </c>
       <c r="AG513" t="s" s="2">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="AH513" t="s" s="2">
         <v>73</v>
@@ -60756,6 +60783,737 @@
         <v>72</v>
       </c>
       <c r="AK513" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="2">
+        <v>1530</v>
+      </c>
+      <c r="B514" t="s" s="2">
+        <v>1721</v>
+      </c>
+      <c r="C514" t="s" s="2">
+        <v>1721</v>
+      </c>
+      <c r="D514" s="2"/>
+      <c r="E514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F514" s="2"/>
+      <c r="G514" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H514" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L514" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="M514" t="s" s="2">
+        <v>1341</v>
+      </c>
+      <c r="N514" t="s" s="2">
+        <v>1722</v>
+      </c>
+      <c r="O514" s="2"/>
+      <c r="P514" s="2"/>
+      <c r="Q514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R514" s="2"/>
+      <c r="S514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG514" t="s" s="2">
+        <v>1721</v>
+      </c>
+      <c r="AH514" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI514" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ514" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK514" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="2">
+        <v>1530</v>
+      </c>
+      <c r="B515" t="s" s="2">
+        <v>1723</v>
+      </c>
+      <c r="C515" t="s" s="2">
+        <v>1723</v>
+      </c>
+      <c r="D515" s="2"/>
+      <c r="E515" t="s" s="2">
+        <v>1724</v>
+      </c>
+      <c r="F515" s="2"/>
+      <c r="G515" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H515" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L515" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="M515" t="s" s="2">
+        <v>1725</v>
+      </c>
+      <c r="N515" t="s" s="2">
+        <v>1726</v>
+      </c>
+      <c r="O515" t="s" s="2">
+        <v>1727</v>
+      </c>
+      <c r="P515" s="2"/>
+      <c r="Q515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R515" s="2"/>
+      <c r="S515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG515" t="s" s="2">
+        <v>1723</v>
+      </c>
+      <c r="AH515" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI515" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ515" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK515" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="2">
+        <v>1530</v>
+      </c>
+      <c r="B516" t="s" s="2">
+        <v>1728</v>
+      </c>
+      <c r="C516" t="s" s="2">
+        <v>1728</v>
+      </c>
+      <c r="D516" s="2"/>
+      <c r="E516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F516" s="2"/>
+      <c r="G516" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H516" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K516" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L516" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="M516" t="s" s="2">
+        <v>1729</v>
+      </c>
+      <c r="N516" t="s" s="2">
+        <v>1730</v>
+      </c>
+      <c r="O516" t="s" s="2">
+        <v>1731</v>
+      </c>
+      <c r="P516" s="2"/>
+      <c r="Q516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R516" s="2"/>
+      <c r="S516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG516" t="s" s="2">
+        <v>1728</v>
+      </c>
+      <c r="AH516" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI516" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ516" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK516" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="2">
+        <v>1530</v>
+      </c>
+      <c r="B517" t="s" s="2">
+        <v>1732</v>
+      </c>
+      <c r="C517" t="s" s="2">
+        <v>1732</v>
+      </c>
+      <c r="D517" s="2"/>
+      <c r="E517" t="s" s="2">
+        <v>1733</v>
+      </c>
+      <c r="F517" s="2"/>
+      <c r="G517" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H517" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K517" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L517" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M517" t="s" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N517" t="s" s="2">
+        <v>1735</v>
+      </c>
+      <c r="O517" t="s" s="2">
+        <v>1736</v>
+      </c>
+      <c r="P517" t="s" s="2">
+        <v>1737</v>
+      </c>
+      <c r="Q517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R517" s="2"/>
+      <c r="S517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y517" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z517" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AA517" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AB517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG517" t="s" s="2">
+        <v>1732</v>
+      </c>
+      <c r="AH517" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI517" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ517" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK517" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="2">
+        <v>1530</v>
+      </c>
+      <c r="B518" t="s" s="2">
+        <v>1738</v>
+      </c>
+      <c r="C518" t="s" s="2">
+        <v>1738</v>
+      </c>
+      <c r="D518" s="2"/>
+      <c r="E518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F518" s="2"/>
+      <c r="G518" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H518" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L518" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M518" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="N518" t="s" s="2">
+        <v>1739</v>
+      </c>
+      <c r="O518" s="2"/>
+      <c r="P518" s="2"/>
+      <c r="Q518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R518" s="2"/>
+      <c r="S518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG518" t="s" s="2">
+        <v>1738</v>
+      </c>
+      <c r="AH518" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI518" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ518" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK518" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="2">
+        <v>1530</v>
+      </c>
+      <c r="B519" t="s" s="2">
+        <v>1740</v>
+      </c>
+      <c r="C519" t="s" s="2">
+        <v>1740</v>
+      </c>
+      <c r="D519" s="2"/>
+      <c r="E519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F519" s="2"/>
+      <c r="G519" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H519" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K519" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L519" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M519" t="s" s="2">
+        <v>1741</v>
+      </c>
+      <c r="N519" t="s" s="2">
+        <v>1742</v>
+      </c>
+      <c r="O519" s="2"/>
+      <c r="P519" s="2"/>
+      <c r="Q519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R519" s="2"/>
+      <c r="S519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG519" t="s" s="2">
+        <v>1740</v>
+      </c>
+      <c r="AH519" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI519" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ519" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK519" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="2">
+        <v>1530</v>
+      </c>
+      <c r="B520" t="s" s="2">
+        <v>1743</v>
+      </c>
+      <c r="C520" t="s" s="2">
+        <v>1743</v>
+      </c>
+      <c r="D520" s="2"/>
+      <c r="E520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F520" s="2"/>
+      <c r="G520" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H520" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L520" t="s" s="2">
+        <v>1348</v>
+      </c>
+      <c r="M520" t="s" s="2">
+        <v>1744</v>
+      </c>
+      <c r="N520" t="s" s="2">
+        <v>1745</v>
+      </c>
+      <c r="O520" t="s" s="2">
+        <v>1746</v>
+      </c>
+      <c r="P520" s="2"/>
+      <c r="Q520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R520" s="2"/>
+      <c r="S520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG520" t="s" s="2">
+        <v>1743</v>
+      </c>
+      <c r="AH520" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI520" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ520" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK520" t="s" s="2">
         <v>91</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-location</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:57+00:00</t>
+    <t>2025-05-14T18:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -839,7 +839,7 @@
     <t>open-elis-observation</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-observation</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-observation</t>
   </si>
   <si>
     <t>OpenELISObservation</t>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request)
 </t>
   </si>
   <si>
@@ -1191,7 +1191,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient)
 </t>
   </si>
   <si>
@@ -1692,7 +1692,7 @@
     <t>open-elis-specimen</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen</t>
   </si>
   <si>
     <t>OpenElisSpecimen</t>
@@ -2360,7 +2360,7 @@
     <t>open-elisorganisation</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elisorganisation</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elisorganisation</t>
   </si>
   <si>
     <t>OpenELISOrganisation</t>
@@ -3017,7 +3017,7 @@
     <t>open-elispractitioner</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elispractitioner</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elispractitioner</t>
   </si>
   <si>
     <t>OpenELISPractitioner</t>
@@ -3402,7 +3402,7 @@
     <t>openelis-diagnostic-report</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-diagnostic-report</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-diagnostic-report</t>
   </si>
   <si>
     <t>OpenELISDiagnosticReport</t>
@@ -3728,7 +3728,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen)
 </t>
   </si>
   <si>
@@ -3751,7 +3751,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-observation)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-observation)
 </t>
   </si>
   <si>
@@ -3885,7 +3885,7 @@
     <t>openelis-patient</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient</t>
   </si>
   <si>
     <t>OpenELISPatient</t>
@@ -4560,7 +4560,7 @@
     <t>openelis-service-request</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request</t>
   </si>
   <si>
     <t>OpenELISServiceRequest</t>
@@ -4908,7 +4908,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -5067,7 +5067,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elispractitioner)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elispractitioner)
 </t>
   </si>
   <si>
@@ -5270,7 +5270,7 @@
     <t>openelis-task</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-task</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-task</t>
   </si>
   <si>
     <t>OpenELISTask</t>
@@ -5876,7 +5876,7 @@
     <t>Task.output.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-diagnostic-report)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-diagnostic-report)
 </t>
   </si>
   <si>
@@ -7414,17 +7414,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="18.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="62.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="15.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="53.34375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7433,21 +7433,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="42.56640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="160.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T18:24:04+00:00</t>
+    <t>2025-05-14T18:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
